--- a/工作日志与计划/公司周工作总结（8.1 - 8.5）.xlsx
+++ b/工作日志与计划/公司周工作总结（8.1 - 8.5）.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Files\工作日志与计划\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Files\nl_files\工作日志与计划\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72777F55-E5FA-4770-A1B2-2093CCACD872}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91ED7762-5990-45AB-A28E-BB4A41803881}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -82,10 +82,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>内容部工作总结（8.8 - 8.13）</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>后端统一开发环境搭建</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -139,6 +135,10 @@
   </si>
   <si>
     <t>总控后台暂无账号，相关业务未熟悉；账号和数据原因，有些功能无法查看；</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>技术部工作总结（8.8 - 8.13）</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -146,7 +146,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -199,15 +199,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
       <color theme="1"/>
       <name val="宋体"/>
       <family val="3"/>
@@ -270,7 +261,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -317,9 +308,6 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -621,7 +609,7 @@
   <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -638,31 +626,31 @@
   <sheetData>
     <row r="1" spans="1:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
-      <c r="J1" s="17"/>
+        <v>31</v>
+      </c>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="16"/>
     </row>
     <row r="2" spans="1:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="19"/>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
-      <c r="H2" s="19"/>
-      <c r="I2" s="19"/>
-      <c r="J2" s="19"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
+      <c r="J2" s="18"/>
     </row>
     <row r="3" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -697,17 +685,17 @@
       </c>
     </row>
     <row r="4" spans="1:10" ht="43.2" x14ac:dyDescent="0.25">
-      <c r="A4" s="20" t="s">
+      <c r="A4" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="21">
+      <c r="B4" s="20">
         <v>0.8</v>
       </c>
-      <c r="C4" s="22" t="s">
-        <v>24</v>
+      <c r="C4" s="21" t="s">
+        <v>23</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E4" s="11" t="s">
         <v>15</v>
@@ -716,24 +704,24 @@
         <v>16</v>
       </c>
       <c r="G4" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H4" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I4" s="4">
         <v>0.6</v>
       </c>
       <c r="J4" s="14" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="20"/>
-      <c r="B5" s="21"/>
-      <c r="C5" s="23"/>
+      <c r="A5" s="19"/>
+      <c r="B5" s="20"/>
+      <c r="C5" s="22"/>
       <c r="D5" s="12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E5" s="11" t="s">
         <v>15</v>
@@ -742,10 +730,10 @@
         <v>16</v>
       </c>
       <c r="G5" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H5" s="11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I5" s="4">
         <v>1</v>
@@ -753,11 +741,11 @@
       <c r="J5" s="6"/>
     </row>
     <row r="6" spans="1:10" ht="22.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="20"/>
-      <c r="B6" s="21"/>
-      <c r="C6" s="23"/>
+      <c r="A6" s="19"/>
+      <c r="B6" s="20"/>
+      <c r="C6" s="22"/>
       <c r="D6" s="12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6" s="11" t="s">
         <v>15</v>
@@ -766,10 +754,10 @@
         <v>16</v>
       </c>
       <c r="G6" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H6" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I6" s="4">
         <v>1</v>
@@ -777,11 +765,11 @@
       <c r="J6" s="6"/>
     </row>
     <row r="7" spans="1:10" ht="22.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="20"/>
-      <c r="B7" s="21"/>
-      <c r="C7" s="23"/>
+      <c r="A7" s="19"/>
+      <c r="B7" s="20"/>
+      <c r="C7" s="22"/>
       <c r="D7" s="13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E7" s="11" t="s">
         <v>15</v>
@@ -790,10 +778,10 @@
         <v>16</v>
       </c>
       <c r="G7" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H7" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I7" s="4">
         <v>1</v>
@@ -801,17 +789,17 @@
       <c r="J7" s="6"/>
     </row>
     <row r="8" spans="1:10" ht="22.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="20" t="s">
+      <c r="A8" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="21">
+      <c r="B8" s="20">
         <v>0.2</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D8" s="13" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E8" s="11" t="s">
         <v>15</v>
@@ -821,7 +809,7 @@
       </c>
       <c r="G8" s="3"/>
       <c r="H8" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I8" s="4">
         <v>1</v>
@@ -829,13 +817,13 @@
       <c r="J8" s="6"/>
     </row>
     <row r="9" spans="1:10" ht="23.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="20"/>
-      <c r="B9" s="21"/>
+      <c r="A9" s="19"/>
+      <c r="B9" s="20"/>
       <c r="C9" s="15" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D9" s="13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E9" s="11" t="s">
         <v>15</v>
@@ -845,7 +833,7 @@
       </c>
       <c r="G9" s="3"/>
       <c r="H9" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I9" s="4">
         <v>1</v>
@@ -867,18 +855,18 @@
       <c r="J10" s="6"/>
     </row>
     <row r="11" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="20" t="s">
+      <c r="A11" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="20"/>
-      <c r="C11" s="20"/>
-      <c r="D11" s="20"/>
-      <c r="E11" s="20"/>
-      <c r="F11" s="20"/>
-      <c r="G11" s="20"/>
-      <c r="H11" s="20"/>
-      <c r="I11" s="20"/>
-      <c r="J11" s="20"/>
+      <c r="B11" s="19"/>
+      <c r="C11" s="19"/>
+      <c r="D11" s="19"/>
+      <c r="E11" s="19"/>
+      <c r="F11" s="19"/>
+      <c r="G11" s="19"/>
+      <c r="H11" s="19"/>
+      <c r="I11" s="19"/>
+      <c r="J11" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="8">
